--- a/data-master/asia_processed_data.xlsx
+++ b/data-master/asia_processed_data.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:BV14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,6 +623,111 @@
           <t>child_0_4_slums</t>
         </is>
       </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>slum_urban_stunting</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>non-slum_urban_stunting</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>All Urban_stunting</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>slum_capital_stunting</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>non-slum_capital_stunting</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>All capital city_stunting</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>All Rural_stunting</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>slum_urban_wasting</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>non-slum_urban_wasting</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>All Urban_wasting</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>slum_capital_wasting</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>non-slum_capital_wasting</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>All Capital city_wasting</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>All Rural_wasting</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>slum_urban_underweight</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>non-slum_capital_underweight</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>All Urban_underweight</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>slum_capital_underweight</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>Non-slum_underweight</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>All Capital city_underweight</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>All Rural_underweight</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -888,6 +993,111 @@
           <t>27.1</t>
         </is>
       </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>32.209025566414162</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>21.109003162856133</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>29.275875314723422</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>31.389399184264505</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>23.326296003292821</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>28.808926482740208</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>36.059232350645345</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>13.989187581872276</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>9.9260375930024285</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>12.915511423462805</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>15.536411223282615</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>9.4736524366545218</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>13.596118113584986</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>15.044167373686104</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>38.037340920903851</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>25.636364487191681</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>34.760417161173827</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>36.378384539796485</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>25.014524135317558</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>32.741555033894436</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>44.603079744049367</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1153,6 +1363,111 @@
           <t>26.3</t>
         </is>
       </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>31.33050319562561</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>14.858803191778929</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>25.006760266984809</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>31.185132904732058</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>13.949955967724636</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>24.134112576773965</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>30.4345981850995</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>11.912750140624393</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>9.5262006176052108</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>10.996516499499343</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>11.440337945421383</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>10.182711253707058</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>10.925834879936772</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>13.540252004816415</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>38.521325584525421</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>21.216080871663692</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>31.87757182165933</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>36.40668569530866</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>17.04660688900141</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>28.486354519535713</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>41.37920151639068</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1418,6 +1733,111 @@
           <t>26.9</t>
         </is>
       </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>23.543979917495349</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>11.696076346973298</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>19.159753072769671</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>20.628544862111735</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>11.277975914824104</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>17.006440046154655</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>25.808190308365536</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>7.9909370853157506</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>5.6409382503341581</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>7.1213378422028741</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>9.5740533558792986</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>5.8134647753222213</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>8.1173242428962666</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>7.3711697857335317</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>26.329515288281637</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>16.352630113914465</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>22.637644608557746</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>25.647627184239134</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>16.453383439399794</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>22.086077642708183</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>27.67863585584896</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2213,6 +2633,111 @@
           <t>24.9</t>
         </is>
       </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>17.767674645741653</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>10.589084089646626</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>15.246475265654849</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>6.1685885368876114</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>10.957112789528809</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>9.2123975226400407</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>25.125364998191031</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>6.3669833651201495</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>8.3712838036200541</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>7.0709155623344468</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>12.03730856186089</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>11.288682790200564</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>11.561447162706711</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>5.6884793747152349</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>20.923862292798589</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>16.59410557818217</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>19.403204461777825</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>32.238054747112294</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>18.435858360236175</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>23.464736044106623</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>25.605596641211754</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2478,6 +3003,96 @@
           <t>28.3</t>
         </is>
       </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>33.040492960219957</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>16.496315923384962</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>28.672106785244829</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>33.375407251871543</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>12.181875107928535</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>26.015830935150163</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>44.113319202694157</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>7.962254332796288</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>5.1680305518099781</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>7.2244570699000814</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>12.292554578276331</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>34.044719984387584</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>16.231410044231389</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>29.341227226792384</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>24.28010860597762</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>15.848700804279748</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>46.51231277923624</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2698,6 +3313,111 @@
           <t>25</t>
         </is>
       </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>24.345890638091976</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>11.733728365945479</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>18.671995509112687</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>26.339855225171576</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>11.584094757075734</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>18.412652975588774</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>34.664011174482404</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>11.690678420520761</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>3.4474904139547893</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>7.9822751135789316</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>12.929963605251841</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>1.9725517584263368</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>7.043339189684227</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>9.5963740814748828</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>25.881066855757695</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>17.98974421454723</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>22.330958941744345</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>22.842748851876301</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>18.186201477396494</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>20.341122934182835</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>35.685768324974561</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2963,6 +3683,111 @@
           <t>26.3</t>
         </is>
       </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>26.505039060957387</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>13.252323797542342</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>22.381856325182834</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>6.5414883957535741</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>3.485025277308166</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>4.695853978849259</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>33.793748523249832</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>10.173154738394276</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>5.8919806118322295</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>8.8411965021666497</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>6.7242980434905215</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>3.485025277308166</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>4.7682746689805038</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>9.5133368440219002</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>33.892534908413289</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>18.889608736044249</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>29.224826823657263</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>10.597610884195499</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>3.485025277308166</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>6.3027012842634216</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>36.267086324658159</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3421,6 +4246,111 @@
       <c r="BA13" t="inlineStr">
         <is>
           <t>28.6</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>28.133361707077352</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>16.275482436501928</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>24.54428930844038</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>26.346666536529685</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>11.298503150112538</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>20.292671929123337</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>33.407655162448364</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>5.7444112830952347</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>6.4911009369718293</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>5.9704148682157605</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>4.6891941430322106</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>3.3001493757883278</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>4.1303704969565116</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>5.3847990191014459</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>22.877133353711216</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>19.575872089435407</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>21.877927221321027</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>17.461817954252446</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>5.3655228739006064</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>12.595383206996448</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>26.284450109264551</t>
         </is>
       </c>
     </row>
